--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dkk2-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dkk2-Lrp6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Dkk2</t>
+  </si>
+  <si>
+    <t>Lrp6</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dkk2</t>
-  </si>
-  <si>
-    <t>Lrp6</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.002991666666666667</v>
+        <v>7.119666333333334</v>
       </c>
       <c r="H2">
-        <v>0.008975</v>
+        <v>21.358999</v>
       </c>
       <c r="I2">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="J2">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.403031</v>
+        <v>12.80871533333333</v>
       </c>
       <c r="N2">
-        <v>28.209093</v>
+        <v>38.426146</v>
       </c>
       <c r="O2">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="P2">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="Q2">
-        <v>0.02813073440833334</v>
+        <v>91.19377933198379</v>
       </c>
       <c r="R2">
-        <v>0.253176609675</v>
+        <v>820.744013987854</v>
       </c>
       <c r="S2">
-        <v>4.482386673669378E-05</v>
+        <v>0.1710312532557846</v>
       </c>
       <c r="T2">
-        <v>4.482386673669378E-05</v>
+        <v>0.1710312532557846</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.002991666666666667</v>
+        <v>7.119666333333334</v>
       </c>
       <c r="H3">
-        <v>0.008975</v>
+        <v>21.358999</v>
       </c>
       <c r="I3">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="J3">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>21.85073566666667</v>
       </c>
       <c r="N3">
-        <v>65.55220700000001</v>
+        <v>65.552207</v>
       </c>
       <c r="O3">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="P3">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="Q3">
-        <v>0.06537011753611112</v>
+        <v>155.5699470845325</v>
       </c>
       <c r="R3">
-        <v>0.5883310578250001</v>
+        <v>1400.129523760793</v>
       </c>
       <c r="S3">
-        <v>0.0001041615691388647</v>
+        <v>0.291766864074597</v>
       </c>
       <c r="T3">
-        <v>0.0001041615691388648</v>
+        <v>0.2917668640745969</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.002991666666666667</v>
+        <v>7.119666333333334</v>
       </c>
       <c r="H4">
-        <v>0.008975</v>
+        <v>21.358999</v>
       </c>
       <c r="I4">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="J4">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.75061866666667</v>
+        <v>10.846871</v>
       </c>
       <c r="N4">
-        <v>44.251856</v>
+        <v>32.540613</v>
       </c>
       <c r="O4">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="P4">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="Q4">
-        <v>0.04412893417777778</v>
+        <v>77.22610228070967</v>
       </c>
       <c r="R4">
-        <v>0.3971604076</v>
+        <v>695.0349205263871</v>
       </c>
       <c r="S4">
-        <v>7.031559987396133E-05</v>
+        <v>0.1448352854096135</v>
       </c>
       <c r="T4">
-        <v>7.031559987396133E-05</v>
+        <v>0.1448352854096135</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.002991666666666667</v>
+        <v>7.119666333333334</v>
       </c>
       <c r="H5">
-        <v>0.008975</v>
+        <v>21.358999</v>
       </c>
       <c r="I5">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="J5">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.921556</v>
+        <v>7.389532</v>
       </c>
       <c r="N5">
-        <v>44.764668</v>
+        <v>22.168596</v>
       </c>
       <c r="O5">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636306</v>
       </c>
       <c r="P5">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636304</v>
       </c>
       <c r="Q5">
-        <v>0.04464032170000001</v>
+        <v>52.61100219948933</v>
       </c>
       <c r="R5">
-        <v>0.4017628953</v>
+        <v>473.499019795404</v>
       </c>
       <c r="S5">
-        <v>7.113045119686552E-05</v>
+        <v>0.09867038856306781</v>
       </c>
       <c r="T5">
-        <v>7.113045119686552E-05</v>
+        <v>0.0986703885630678</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.002991666666666667</v>
+        <v>7.119666333333334</v>
       </c>
       <c r="H6">
-        <v>0.008975</v>
+        <v>21.358999</v>
       </c>
       <c r="I6">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="J6">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.960233</v>
+        <v>7.190038666666666</v>
       </c>
       <c r="N6">
-        <v>20.880699</v>
+        <v>21.570116</v>
       </c>
       <c r="O6">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950015</v>
       </c>
       <c r="P6">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950013</v>
       </c>
       <c r="Q6">
-        <v>0.02082269705833333</v>
+        <v>51.19067623043156</v>
       </c>
       <c r="R6">
-        <v>0.187404273525</v>
+        <v>460.716086073884</v>
       </c>
       <c r="S6">
-        <v>3.317914792031829E-05</v>
+        <v>0.09600660894674819</v>
       </c>
       <c r="T6">
-        <v>3.317914792031829E-05</v>
+        <v>0.09600660894674817</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.002991666666666667</v>
+        <v>7.119666333333334</v>
       </c>
       <c r="H7">
-        <v>0.008975</v>
+        <v>21.358999</v>
       </c>
       <c r="I7">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="J7">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.24455733333333</v>
+        <v>14.525612</v>
       </c>
       <c r="N7">
-        <v>57.733672</v>
+        <v>43.576836</v>
       </c>
       <c r="O7">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="P7">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="Q7">
-        <v>0.05757330068888889</v>
+        <v>103.4175107274627</v>
       </c>
       <c r="R7">
-        <v>0.5181597062</v>
+        <v>930.757596547164</v>
       </c>
       <c r="S7">
-        <v>9.173802291154803E-05</v>
+        <v>0.1939565022732645</v>
       </c>
       <c r="T7">
-        <v>9.173802291154805E-05</v>
+        <v>0.1939565022732644</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>7.119666333333332</v>
+        <v>0.026678</v>
       </c>
       <c r="H8">
-        <v>21.358999</v>
+        <v>0.08003399999999999</v>
       </c>
       <c r="I8">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="J8">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.403031</v>
+        <v>12.80871533333333</v>
       </c>
       <c r="N8">
-        <v>28.209093</v>
+        <v>38.426146</v>
       </c>
       <c r="O8">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="P8">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="Q8">
-        <v>66.94644324198966</v>
+        <v>0.3417109076626667</v>
       </c>
       <c r="R8">
-        <v>602.5179891779069</v>
+        <v>3.075398168964</v>
       </c>
       <c r="S8">
-        <v>0.1066733063849778</v>
+        <v>0.0006408687655762082</v>
       </c>
       <c r="T8">
-        <v>0.1066733063849778</v>
+        <v>0.0006408687655762082</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>7.119666333333332</v>
+        <v>0.026678</v>
       </c>
       <c r="H9">
-        <v>21.358999</v>
+        <v>0.08003399999999999</v>
       </c>
       <c r="I9">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="J9">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>21.85073566666667</v>
       </c>
       <c r="N9">
-        <v>65.55220700000001</v>
+        <v>65.552207</v>
       </c>
       <c r="O9">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="P9">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="Q9">
-        <v>155.5699470845325</v>
+        <v>0.5829339261153332</v>
       </c>
       <c r="R9">
-        <v>1400.129523760793</v>
+        <v>5.246405335037999</v>
       </c>
       <c r="S9">
-        <v>0.2478871143259546</v>
+        <v>0.001093275447943337</v>
       </c>
       <c r="T9">
-        <v>0.2478871143259547</v>
+        <v>0.001093275447943337</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>7.119666333333332</v>
+        <v>0.026678</v>
       </c>
       <c r="H10">
-        <v>21.358999</v>
+        <v>0.08003399999999999</v>
       </c>
       <c r="I10">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="J10">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.75061866666667</v>
+        <v>10.846871</v>
       </c>
       <c r="N10">
-        <v>44.251856</v>
+        <v>32.540613</v>
       </c>
       <c r="O10">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="P10">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="Q10">
-        <v>105.0194831169049</v>
+        <v>0.289372824538</v>
       </c>
       <c r="R10">
-        <v>945.1753480521439</v>
+        <v>2.604355420842</v>
       </c>
       <c r="S10">
-        <v>0.1673393679545783</v>
+        <v>0.0005427102287177879</v>
       </c>
       <c r="T10">
-        <v>0.1673393679545783</v>
+        <v>0.0005427102287177878</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>7.119666333333332</v>
+        <v>0.026678</v>
       </c>
       <c r="H11">
-        <v>21.358999</v>
+        <v>0.08003399999999999</v>
       </c>
       <c r="I11">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="J11">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.921556</v>
+        <v>7.389532</v>
       </c>
       <c r="N11">
-        <v>44.764668</v>
+        <v>22.168596</v>
       </c>
       <c r="O11">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636306</v>
       </c>
       <c r="P11">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636304</v>
       </c>
       <c r="Q11">
-        <v>106.236499894148</v>
+        <v>0.197137934696</v>
       </c>
       <c r="R11">
-        <v>956.1284990473318</v>
+        <v>1.774241412264</v>
       </c>
       <c r="S11">
-        <v>0.1692785778254484</v>
+        <v>0.0003697264032952372</v>
       </c>
       <c r="T11">
-        <v>0.1692785778254484</v>
+        <v>0.0003697264032952372</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>7.119666333333332</v>
+        <v>0.026678</v>
       </c>
       <c r="H12">
-        <v>21.358999</v>
+        <v>0.08003399999999999</v>
       </c>
       <c r="I12">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="J12">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.960233</v>
+        <v>7.190038666666666</v>
       </c>
       <c r="N12">
-        <v>20.880699</v>
+        <v>21.570116</v>
       </c>
       <c r="O12">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950015</v>
       </c>
       <c r="P12">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950013</v>
       </c>
       <c r="Q12">
-        <v>49.55453656225566</v>
+        <v>0.1918158515493333</v>
       </c>
       <c r="R12">
-        <v>445.9908290603009</v>
+        <v>1.726342663944</v>
       </c>
       <c r="S12">
-        <v>0.07896082309202565</v>
+        <v>0.0003597449927519563</v>
       </c>
       <c r="T12">
-        <v>0.07896082309202565</v>
+        <v>0.0003597449927519563</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>7.119666333333332</v>
+        <v>0.026678</v>
       </c>
       <c r="H13">
-        <v>21.358999</v>
+        <v>0.08003399999999999</v>
       </c>
       <c r="I13">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="J13">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,772 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.24455733333333</v>
+        <v>14.525612</v>
       </c>
       <c r="N13">
-        <v>57.733672</v>
+        <v>43.576836</v>
       </c>
       <c r="O13">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="P13">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="Q13">
-        <v>137.0148269460364</v>
+        <v>0.387514276936</v>
       </c>
       <c r="R13">
-        <v>1233.133442514328</v>
+        <v>3.487628492424</v>
       </c>
       <c r="S13">
-        <v>0.2183211520478809</v>
+        <v>0.0007267716386399216</v>
       </c>
       <c r="T13">
-        <v>0.2183211520478809</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.05260399999999999</v>
-      </c>
-      <c r="H14">
-        <v>0.157812</v>
-      </c>
-      <c r="I14">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="J14">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>9.403031</v>
-      </c>
-      <c r="N14">
-        <v>28.209093</v>
-      </c>
-      <c r="O14">
-        <v>0.1079186507462474</v>
-      </c>
-      <c r="P14">
-        <v>0.1079186507462474</v>
-      </c>
-      <c r="Q14">
-        <v>0.4946370427239999</v>
-      </c>
-      <c r="R14">
-        <v>4.451733384515999</v>
-      </c>
-      <c r="S14">
-        <v>0.0007881608977661413</v>
-      </c>
-      <c r="T14">
-        <v>0.0007881608977661413</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.05260399999999999</v>
-      </c>
-      <c r="H15">
-        <v>0.157812</v>
-      </c>
-      <c r="I15">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="J15">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>21.85073566666667</v>
-      </c>
-      <c r="N15">
-        <v>65.55220700000001</v>
-      </c>
-      <c r="O15">
-        <v>0.2507810418746436</v>
-      </c>
-      <c r="P15">
-        <v>0.2507810418746436</v>
-      </c>
-      <c r="Q15">
-        <v>1.149436099009333</v>
-      </c>
-      <c r="R15">
-        <v>10.344924891084</v>
-      </c>
-      <c r="S15">
-        <v>0.001831525966455991</v>
-      </c>
-      <c r="T15">
-        <v>0.001831525966455991</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.05260399999999999</v>
-      </c>
-      <c r="H16">
-        <v>0.157812</v>
-      </c>
-      <c r="I16">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="J16">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>14.75061866666667</v>
-      </c>
-      <c r="N16">
-        <v>44.251856</v>
-      </c>
-      <c r="O16">
-        <v>0.1692929507707757</v>
-      </c>
-      <c r="P16">
-        <v>0.1692929507707757</v>
-      </c>
-      <c r="Q16">
-        <v>0.7759415443413332</v>
-      </c>
-      <c r="R16">
-        <v>6.983473899072</v>
-      </c>
-      <c r="S16">
-        <v>0.001236395035911931</v>
-      </c>
-      <c r="T16">
-        <v>0.001236395035911931</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.05260399999999999</v>
-      </c>
-      <c r="H17">
-        <v>0.157812</v>
-      </c>
-      <c r="I17">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="J17">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>14.921556</v>
-      </c>
-      <c r="N17">
-        <v>44.764668</v>
-      </c>
-      <c r="O17">
-        <v>0.171254799708155</v>
-      </c>
-      <c r="P17">
-        <v>0.171254799708155</v>
-      </c>
-      <c r="Q17">
-        <v>0.7849335318239999</v>
-      </c>
-      <c r="R17">
-        <v>7.064401786415999</v>
-      </c>
-      <c r="S17">
-        <v>0.00125072298209245</v>
-      </c>
-      <c r="T17">
-        <v>0.00125072298209245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.05260399999999999</v>
-      </c>
-      <c r="H18">
-        <v>0.157812</v>
-      </c>
-      <c r="I18">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="J18">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>6.960233</v>
-      </c>
-      <c r="N18">
-        <v>20.880699</v>
-      </c>
-      <c r="O18">
-        <v>0.07988264148437943</v>
-      </c>
-      <c r="P18">
-        <v>0.07988264148437943</v>
-      </c>
-      <c r="Q18">
-        <v>0.3661360967319999</v>
-      </c>
-      <c r="R18">
-        <v>3.295224870588</v>
-      </c>
-      <c r="S18">
-        <v>0.0005834058709305034</v>
-      </c>
-      <c r="T18">
-        <v>0.0005834058709305034</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.05260399999999999</v>
-      </c>
-      <c r="H19">
-        <v>0.157812</v>
-      </c>
-      <c r="I19">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="J19">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>19.24455733333333</v>
-      </c>
-      <c r="N19">
-        <v>57.733672</v>
-      </c>
-      <c r="O19">
-        <v>0.2208699154157988</v>
-      </c>
-      <c r="P19">
-        <v>0.2208699154157988</v>
-      </c>
-      <c r="Q19">
-        <v>1.012340693962666</v>
-      </c>
-      <c r="R19">
-        <v>9.111066245663999</v>
-      </c>
-      <c r="S19">
-        <v>0.001613076420247044</v>
-      </c>
-      <c r="T19">
-        <v>0.001613076420247044</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.027522</v>
-      </c>
-      <c r="H20">
-        <v>0.082566</v>
-      </c>
-      <c r="I20">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="J20">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>9.403031</v>
-      </c>
-      <c r="N20">
-        <v>28.209093</v>
-      </c>
-      <c r="O20">
-        <v>0.1079186507462474</v>
-      </c>
-      <c r="P20">
-        <v>0.1079186507462474</v>
-      </c>
-      <c r="Q20">
-        <v>0.258790219182</v>
-      </c>
-      <c r="R20">
-        <v>2.329111972638</v>
-      </c>
-      <c r="S20">
-        <v>0.000412359596766781</v>
-      </c>
-      <c r="T20">
-        <v>0.000412359596766781</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.027522</v>
-      </c>
-      <c r="H21">
-        <v>0.082566</v>
-      </c>
-      <c r="I21">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="J21">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>21.85073566666667</v>
-      </c>
-      <c r="N21">
-        <v>65.55220700000001</v>
-      </c>
-      <c r="O21">
-        <v>0.2507810418746436</v>
-      </c>
-      <c r="P21">
-        <v>0.2507810418746436</v>
-      </c>
-      <c r="Q21">
-        <v>0.6013759470180001</v>
-      </c>
-      <c r="R21">
-        <v>5.412383523162001</v>
-      </c>
-      <c r="S21">
-        <v>0.0009582400130940955</v>
-      </c>
-      <c r="T21">
-        <v>0.0009582400130940958</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.027522</v>
-      </c>
-      <c r="H22">
-        <v>0.082566</v>
-      </c>
-      <c r="I22">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="J22">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>14.75061866666667</v>
-      </c>
-      <c r="N22">
-        <v>44.251856</v>
-      </c>
-      <c r="O22">
-        <v>0.1692929507707757</v>
-      </c>
-      <c r="P22">
-        <v>0.1692929507707757</v>
-      </c>
-      <c r="Q22">
-        <v>0.405966526944</v>
-      </c>
-      <c r="R22">
-        <v>3.653698742496</v>
-      </c>
-      <c r="S22">
-        <v>0.0006468721804115311</v>
-      </c>
-      <c r="T22">
-        <v>0.0006468721804115311</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.027522</v>
-      </c>
-      <c r="H23">
-        <v>0.082566</v>
-      </c>
-      <c r="I23">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="J23">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>14.921556</v>
-      </c>
-      <c r="N23">
-        <v>44.764668</v>
-      </c>
-      <c r="O23">
-        <v>0.171254799708155</v>
-      </c>
-      <c r="P23">
-        <v>0.171254799708155</v>
-      </c>
-      <c r="Q23">
-        <v>0.4106710642320001</v>
-      </c>
-      <c r="R23">
-        <v>3.696039578088</v>
-      </c>
-      <c r="S23">
-        <v>0.0006543684494173147</v>
-      </c>
-      <c r="T23">
-        <v>0.0006543684494173147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.027522</v>
-      </c>
-      <c r="H24">
-        <v>0.082566</v>
-      </c>
-      <c r="I24">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="J24">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>6.960233</v>
-      </c>
-      <c r="N24">
-        <v>20.880699</v>
-      </c>
-      <c r="O24">
-        <v>0.07988264148437943</v>
-      </c>
-      <c r="P24">
-        <v>0.07988264148437943</v>
-      </c>
-      <c r="Q24">
-        <v>0.191559532626</v>
-      </c>
-      <c r="R24">
-        <v>1.724035793634</v>
-      </c>
-      <c r="S24">
-        <v>0.0003052333735029526</v>
-      </c>
-      <c r="T24">
-        <v>0.0003052333735029526</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.027522</v>
-      </c>
-      <c r="H25">
-        <v>0.082566</v>
-      </c>
-      <c r="I25">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="J25">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>19.24455733333333</v>
-      </c>
-      <c r="N25">
-        <v>57.733672</v>
-      </c>
-      <c r="O25">
-        <v>0.2208699154157988</v>
-      </c>
-      <c r="P25">
-        <v>0.2208699154157988</v>
-      </c>
-      <c r="Q25">
-        <v>0.529648706928</v>
-      </c>
-      <c r="R25">
-        <v>4.766838362352</v>
-      </c>
-      <c r="S25">
-        <v>0.0008439489247593176</v>
-      </c>
-      <c r="T25">
-        <v>0.0008439489247593177</v>
+        <v>0.0007267716386399215</v>
       </c>
     </row>
   </sheetData>
